--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/31_Erzurum_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/31_Erzurum_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88919F2B-CBE8-4DC2-8700-9DB22C889DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{870A4F95-7710-42D1-8C0C-3956E594FDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{EDDF3F6B-751F-4FBD-A5D1-E366191469AB}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{4C1A83C5-C6E9-460D-B565-308AB98898C4}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -953,13 +953,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{A99E9085-5E40-4793-BEFD-B24D2CC81186}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{EFEB60E2-E547-47C2-BC80-256D675AD3E8}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{C1CF3EC4-92A4-42A2-ABC4-545FA79232F4}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{CF63825E-5BF8-484B-8BB6-5243EF9B8AD5}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{0936ED2F-C7F7-4B2D-9D39-DACD70F960A9}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{371CF1BD-B91B-48D1-8166-3660E3EE4BE6}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{A1C0F4C5-D932-401D-9E62-AA2949076FC7}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{12A2E41A-3624-49A3-9C62-0026AECF3BD7}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{09000C15-05A6-48B2-B183-700E21A42811}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{1C35E2C7-6EF4-4A7D-B5D4-5E76635E5F38}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{2CCE48E4-AF8E-4972-99EB-BE50FD6D33B2}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{165C34F5-106D-4CA9-AA4B-27698FD99064}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{10A2EAD9-F9C5-46DE-AA1D-7AED82BE4A3C}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{7BB8BA39-A298-4B34-82DC-D73511F3AF4A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1329,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325A3569-6D86-4138-9AF6-173BB7A21D73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073A9B2F-FC55-40EC-BF50-757C3C08A947}">
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2578,18 +2578,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7CE9708F-4BC4-4007-BF69-384AE315DC40}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{64109FC7-DB9B-45BA-8B13-35BF7DE0C96F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{75AC2D60-5854-4624-8857-5397C690EDFD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2D6FDBBB-3357-4D4D-9C75-C8F1DAD91BFB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5128DF68-6027-47A7-959D-047EAD6EB089}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D3DCC66E-820D-4025-A0F8-D72A0565ED3D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F92F928F-5FF2-4FC9-A985-33A9046B49E3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CE45D077-3CD9-4DF3-AD9F-48C1C324A89C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{274E52CF-3577-4CE7-9D60-A62E573A7C6D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AEF2CCB0-54E6-41CE-AA34-384468B209D7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F174407F-5E8E-4A50-ADEE-D95A13290810}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0D958FC6-98E0-4434-8109-7845478826FC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EB1BF306-82A4-460A-BD9F-F0A9694FA21E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7340789B-3193-4A63-9425-EF6BB45AEF89}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{91E16EEF-13F9-4055-A8C1-6B8F40647021}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{900093DC-1DC4-4960-9E35-4FF18FC3D75A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5D96C1B0-2C72-421C-B9EA-7D3757BB1C79}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6C6220E4-7A0C-47F9-8DAA-9C291EDF708E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{63E31537-2583-4D79-AA06-458B082059DF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1DEBE273-821C-42B4-805C-2EB3C506DBAC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{68F9D447-6A03-49F3-B8D2-8CA1D97D663A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BCA39805-624E-41A4-A6FF-814174B97321}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{51EE2DF3-F7F3-40B0-997C-86446F458FF3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{60467A61-D5D2-43A1-BEFF-BDC299287E09}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2602,7 +2602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D982BA-7AC4-4353-A991-1962FBA1EAEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D08B41-9F15-4042-8FD0-26686BC059F8}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3823,18 +3823,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{553F2E32-0B2F-4E0F-9390-141BFB406A30}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{770F2800-0324-4D0E-8F1E-F9AD6D0027BF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EBA95627-A6D5-4F48-AF73-B8C0B2E41927}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C0224624-9ACC-45BB-944A-85712B18BCBA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C2EB12D7-9664-4504-A382-00C874AD44B4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B6EDBE25-AE38-48A2-85B8-97A712F192C7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6899DA0C-D8FE-4422-A19D-4C718919831E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{660EAF9F-5E70-404D-A89A-DB2E97E9154C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA72CE2F-CFF0-46E1-BAC7-D70E11E9A4D6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2874275A-6904-4C03-BB95-B1803E0589DB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CBB86366-CD01-4042-B8B6-248F6B6F0743}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5B205943-BC06-4BCB-8CCD-2A3E13DE6593}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{515D198F-B9A1-4157-8810-387A15C129E0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D1D2E9DC-FC8E-4613-9298-76FEE55EF1C1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1DDEC18C-D081-4C65-BA40-8D3842D2B3E2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FCD6BB46-E00B-4B4F-B650-DDA6FB035416}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{042E7686-1E61-4F2F-BC33-26F05C67206C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{85EF621D-1039-4043-A5E2-0B4F34B1E89C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4342CDBF-BE81-4EB4-AA9C-C47D3DD38FA1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{53B211E5-1033-4C09-B0F8-92BF13CC0512}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{031731B1-0FE1-48F5-BC9E-002FEB7C8EBF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2392AF36-4FB7-49CB-971B-5E79F84DC6BE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FAC06AE9-5886-47A3-9AE2-97E764ECA1AC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{09E40BBB-0AD4-48DA-BE12-8D11F993DE56}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3847,7 +3847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD6D009-0659-44E5-8FDC-F5C063A2C2E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D02B2E-6DE6-4221-9A0A-0ECFC45BB322}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5070,18 +5070,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8312DAA0-6689-4B4C-9601-F7D8ED3FA471}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1B58D1FF-D97A-4C7C-8A53-32BDB2299D72}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8BFC9D75-EEAA-4F64-B383-A8163537CBD3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{626C2B6E-A5F4-4E4E-A96A-CCC42E15029F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{34117261-D274-4B25-AFE3-E3593DFBDC8E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DAC53E18-1E7D-4150-B072-EAA8D263A343}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F1603A5D-54BF-4027-87E8-AC89BA3996C7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BC386D0F-6060-42E9-B92D-02D12FBB5AA5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{490B38B7-B350-4DD5-AB13-39C403F5345F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4D26798C-25E9-41A2-AD1A-16D6BCF845C4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6BC67C8-C0D6-47DD-BEDF-DA71173C00AD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B6CAD98F-B0D5-4328-A058-C3061DBAB5DE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C2985398-EE03-4B92-B7B8-71CFB23C53F4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{93BE75E4-072D-4AED-AC35-73A425E8AB7A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{24014369-9C94-4C4E-B537-F8CD9AE81D8F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{30ADFF50-8AA8-47BC-9C09-5358A4DF4BF4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{13BACE81-64D2-44C7-B3C8-ED3DA057F54F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C9A63603-A193-4F8B-A7DC-5488FA654DD1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{31676D0B-8B23-48C8-A16E-697036FC814B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{42A9A876-38F6-4470-A036-0674364CAD85}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0B0359DF-9CC3-47B0-A01B-4130AA3128F5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{38030862-D6C1-4E4C-B499-1DD9F8A64904}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CCF0D0D5-6F8C-46DF-BF9F-6F8499F49B24}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{55C8A229-87F0-47C7-84E3-34BA0B6CBDA1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5094,7 +5094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C181D5-FCBE-4429-A328-57536402F7C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842DEB37-C57A-42F2-AEB0-6D3999F2F074}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6300,18 +6300,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5BF4144E-531E-46B0-93D1-4F2E5CBA1FF6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A303FD90-5879-46E0-9D51-2602E230855C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8B5AC03D-1625-49DF-8936-6F74740661D1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{785A2017-6785-4E9B-9BAA-8D6BE2974C87}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{743C8D2A-EC53-42B9-99FA-FA33CBD72982}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A20C7132-EF03-4B93-9D7E-FB4DDF82CD8F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1EC26A95-74B7-41B6-8877-3BA305B64960}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A443632E-CB4F-44B0-A3B0-15603B4B51B2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F92BD98-A74C-44D6-A078-411ACBB307EE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BBCF0CAC-5A32-4D84-A79E-833E6B4C71CF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F8C00FEC-1F83-4190-869E-277864440AFC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{788B38E5-9B18-4315-9DD8-40158A3B96FD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3BE90A8B-5BF9-4D7A-8939-CFA4AE44DD6D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{24617232-DA65-427E-BF38-C58C0F586196}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F5644B4E-5D81-4CE0-AB97-73A0E9334893}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E14ECFF3-39BE-4B89-A1EE-C865CEBAF0A8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{11FEB70C-2535-4A9B-BAAC-E020757B6980}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4880B4DC-32D7-46A8-80DE-35B760E41BD3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1397AEA9-C14F-49B1-8A65-40AF02C8234A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{62BA59AF-C79E-458E-B7AD-5D922EF24EE9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A7F61C0F-1E4C-40D0-9061-EA72B6A2F3B7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{049C03E9-7D44-4431-86D4-5EBB6A212FD1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{494CDACE-D2A3-42FD-A595-22FA282791D0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A9A545CD-E36E-4BBD-8594-DF16A6AD9628}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6324,7 +6324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65A57BD-D89F-4077-BEF3-EEA0E0531CDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75EA6C6-39A2-40AC-9683-DF037ACB708E}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7561,18 +7561,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3B2F03B6-8A55-46F0-9D1F-8A700F84E3A7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF703F6F-54D3-49B0-AE5F-D4F6ECB000AD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AFF8CA63-23F7-4B5E-98A9-7B869424FCC0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{11F9C346-C2B2-4647-9BFF-65A2551326D2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0E3C6B43-93C5-4361-8542-D5066703DDAE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D2171EAD-42D9-4DDB-B9AA-2668F2AAA86D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{243C0E86-89FF-40CB-8EE2-DEBFC5FA46A2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3D5C9868-7E63-4ABD-89C4-B418DC107E38}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C03676D8-38F5-4588-ACC7-B4FA74159789}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C8FA49EF-95FD-4894-A43A-AFCDE6767E57}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DCA2AE48-1A03-46D3-A973-C7B12E618C18}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1CE1F2F9-72D7-443B-9B68-19E3EB1B2535}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6938071A-05F4-4699-8209-1EA53C390FCF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7E6DFF32-AC23-4D9E-A6C2-8407CCC061A9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2B55C6C2-B60B-4679-AD63-2EB49737D1AB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E1DD8C53-A065-4D61-B102-BB417A1D728B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FBFD190B-74FA-48BA-9DE0-C3537B868B7F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AD530CF4-A427-4ABF-B3D4-07AB566D8842}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F649EC0E-5AF0-4546-A87E-3DCB0D2BAA5D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DF0776A7-E84C-4262-98FC-EEE45F81F80C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C00EC35-8D32-4A32-BCA7-AD0242945715}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D7A9EE9F-11DC-4DC6-B341-B0EB8F9D75CA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D95BC41-A64C-4484-992F-5003A729306E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C37714B4-6811-47AA-8B7B-BC022ADF3264}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7585,7 +7585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF011DE-E3E1-4847-8FC1-763C768A5552}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F109D9A-122B-4914-9D08-F9B5F3C01CF6}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8822,18 +8822,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6FC7454B-455B-426E-817F-D59219148F33}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{32CD7376-CF14-406E-BFEF-4BB3427F12A7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3B2A7924-5567-49B9-BAA9-068C63603377}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AE29E0E0-4747-4783-8598-4FA7BDBAA01D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{68DAB511-44BE-4FB3-8922-C2508519445A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F9CE9B20-181A-4C8A-BD5A-56587420C98E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2A2924F6-6744-4771-B4B7-DF4F7980D5AE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F481C3FE-9EEB-4237-848E-AA5FA3E9C083}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F0E33C25-E355-4A2C-98BD-92D67C52F452}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C7300711-2736-4253-89A5-21D098D654BA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6145CBB4-C1A8-4F3B-AEEC-6C346F82223C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D34CD13-36A0-4BE2-8E57-F5721CD03B87}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{77A8E4E3-360B-4D96-897D-B32874DFA1D1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{48E46ABF-4F52-4F47-82C8-FE56D466DEE8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{96355309-05BA-406A-A237-E91DED4D1DD0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7323BE18-1BA1-4EA3-AA88-3B70378C851E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F215F825-E88D-4FEC-B56A-8F3105505E11}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5541B1F4-0FE1-44C7-A870-D0205D37FE45}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C3BD5587-539D-41E0-99F3-4A9B5589852D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3B8D7A00-F06F-4A31-806A-6BAED756CC23}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C9EE5C87-D115-4416-96EA-2F4F67F6D7C5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E5C33B45-AF1B-425C-965D-D4F4AA7B7CCF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1CBF0038-C8FF-45C8-9EAD-54615A9F0BA6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EE9A47BD-1EBF-4F02-A29E-AE15D4A7C1FF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8846,7 +8846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E037CFF1-C9B2-426E-8365-9A7DC2F42C89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8FC95F-E77A-41E2-844A-F76E4D5C5DF0}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10085,18 +10085,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{86FDDC75-8D8F-4329-842A-8E34C649A232}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9C460BBA-49F9-4EBD-8433-8CB60759FDE7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7F982471-173B-4CD0-A8E8-D46E5D1D44CC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B5172D9D-0397-4265-9B4E-8F17121E56A6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A025C358-6824-4701-9FDF-AD884D6E395B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0409C764-72C2-4344-987F-431EEC40B282}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D0110228-E82F-4149-92BC-E288FCF94B70}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B14FACE8-D1AF-417F-B7B7-738183A03A9A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7DF84129-F7D1-4CB3-AAB0-E6E39A98459D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{62A458FD-9E8B-42AD-9804-058230017611}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F39696A9-F9C2-4F5D-B42B-FF521DE5D350}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E0B263F3-8CD3-4058-A5FD-185ACCD78593}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B36C1432-B93B-48A5-95A7-367838087280}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{19FD14FD-1DEB-4BE9-A00C-B0BA48A5D2E6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2B62CA1B-B155-4DC8-A615-2393C51312C0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EAE14D3E-71E3-4FC7-AEE5-074BEA96FC63}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{91923CC7-6D10-4D6B-80AB-A7831370E13B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{81647BC8-1F0D-4CAC-9281-ED69DCAAAC18}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5467CED8-538B-4FC9-B981-304737DFED8F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{910167A4-7218-4781-86C6-839EC0783230}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3F99079C-AAE2-4287-9B4C-EED667AA3D01}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B27ADFDB-E519-4273-A518-86521B9FD814}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{80682929-F430-42A7-8309-6E98723FD6B2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{707A7559-4E28-42EF-8070-5D461717EC1E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10109,7 +10109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1E86F4-771A-4918-9C03-28C7C29296B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDD137D-4FFC-4767-B2C7-18F87E3F4CD9}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11346,18 +11346,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{96A1FAA6-4B39-44A1-9B4F-EFBFC1928F37}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A1FCAB35-7DBA-4BD8-B6D3-194CFCF9B1F5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{14B81A03-38FC-426E-82B4-90BF95041DA4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0F754A03-19C9-470F-8C81-97A943C24983}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7FE3ABB5-2F5E-45AE-800D-A991869F55D1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{78D8D9E9-60BA-4C26-A391-AF81B3566802}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{458622BB-1816-4F39-98A5-BA8B0DC94363}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E99584D1-9908-436A-9301-79B936EA2A66}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1743DBCF-EBC9-4DBB-8A6D-724BEB37B088}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{60749D1C-CD22-4A92-BBD3-5B3726F4F336}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6AF5227D-6228-466D-8137-20E46E2399E3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D41C7470-2662-4DBE-91F2-496FAE9ADAC9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1EE277EB-5EB0-4407-9E10-F2A8AEF675E5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DE414941-8096-44A5-9D10-07F0FC6B2FC7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FDF5C9D1-B5B5-4B9C-B45A-82C6F8954E85}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B0B98C65-60C1-41B0-995C-C7D208CC0F15}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E54A114B-F397-4B98-BA20-A407BB26BA84}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{70460B94-E874-4D31-919F-A7B54543A340}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE7BD80C-3279-4556-8CA6-1B4CCD534FE2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{30577D73-FC81-48FC-B2BE-837B8813182B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{07295675-A446-4F11-9FFD-DDEEE6C3BCDC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{157EC077-95AB-4CE3-BE4D-5BEC85EBD3CA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{41CA1809-42B6-48AC-AC6D-FA95A0032C11}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9E55DEAA-A4EB-4870-9807-208FC65C86DC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11370,7 +11370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA86BF2-2545-49D9-9365-E596201910E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4ACDE6-30AA-411E-8148-618AABA3B74E}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12607,18 +12607,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2790F783-46D9-4551-B026-0A466EF28469}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{09CAB2EC-6001-45BC-A8E0-0F0CC0C55C75}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D9A45D02-A3A2-4AF0-A9AE-40D2A8BA290D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D8AADCFF-31CB-4E9F-BC9B-479132327BE7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7F7F0FF6-6048-41AD-89CC-6C3A1234D84E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9B819923-61A3-43A1-9045-31290A04160F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7FF7B13D-D674-40D5-8217-777551B4496B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{89B3044B-B8AF-4111-9DBB-BCB488CF0AC4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A1A41AC4-42D0-4635-8402-FA83C306B171}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{55A0BCA8-4263-4830-9E3C-5D0910E03233}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{688DDAB7-E980-47DD-B67C-C12268C57AF8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F0A73262-A5CA-42F7-8B33-39D1B35AA62F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{027ADCDB-3AC2-43B1-905C-48A8A70C9B57}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{287BAA11-40E8-4BC3-8462-02CCF2B5BF53}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{078C1FC9-9F74-4751-A3AD-B243F49BCCEF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AF7B29BA-805B-479C-B89F-A437E18B3477}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{806BCA21-4A5F-43AA-AE22-0A80C0CC5FD9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F0C733AC-BDEE-4A20-AA4C-98D55524CF44}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C1CCCF32-24FD-46C9-8F20-2405051DC62C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{814DD74B-0AB9-4C30-B42C-AA5045615776}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{89F04FBB-8AEE-4BFD-9205-67CE7047A257}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7BF859C2-77E1-4BB0-BD45-DA848A378376}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{64136D98-7C50-4A42-A7B1-518D0A86A33E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7B0B895C-77A7-4EB9-9FB5-B1829786AFFB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12631,7 +12631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E535B067-DA5A-42CC-A237-3C801DC6EDB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054DA2F6-7121-4BD7-85B6-75DE59F0EECF}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13860,18 +13860,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5FEC9A48-3304-47D1-8FD1-BD2A8CDC0A12}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{800E14F3-6DD0-49B6-A093-A00055B7C75E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F96CDEF8-5595-4F65-A098-CF0021AF6CC3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{564C0A73-ED0F-4ACC-AE2C-EDD9B0D4EA24}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FD1CC00F-47A4-42B0-99CD-797C27D1431E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E3998BA9-190B-48EB-8CC9-8328996443E5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B9BE2B72-4713-41C6-ACDA-BBB3CDA132E3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F9B9729C-8F7A-40B4-B5BE-9733BE1FCB4C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{17458DB2-2906-4996-9E9F-A4A4AF230904}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{82D97369-7D05-495C-99D9-76837DAE44B3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9CC9811A-A82A-49A3-9225-6964B72A0AA8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4320A425-8C38-4072-B10C-FD913B38C760}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{138AC203-D444-41AB-BCAE-CF99DE2CD4DD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F29DFA65-0EDA-4F9F-A814-6C5B9D3EF179}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6CD18645-E13C-4BAB-9EB6-8D9C10A78E05}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1FEA1EC7-5D4B-42FD-BE44-B43FA3114BB6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C70553D4-CB4B-4A64-A65B-C0DADC18B4A4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{60FF3D72-A338-4C5D-9EB1-FCC2846BBEDE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E3EBC592-5A40-4566-BBFB-D51C9F77391F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{57ED9A6C-2AEE-4F9D-907E-0610ED127FC7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36C13ED0-6EF3-484E-8297-6C8E861B2584}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D6AFED33-27B6-4DF6-AB55-18B350A50556}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BB47EEC1-34F3-4F42-829B-836F18581695}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{31EE4125-5916-4759-AF1D-CFCEAD57E32D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13884,7 +13884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9CBCE0-5FA5-41AF-B7BF-6FB50E5DA170}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F63B42A-96F1-489C-A387-4CB7140A771A}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15115,18 +15115,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56F84C63-1597-4022-81BA-C85B258FD4DA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{484AD538-49AA-4C70-BF7F-E718AB6DD952}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EF346109-0898-4A04-A05E-138C160710A8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{09EED43E-7BF2-4527-89AD-E928FCEB87F3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9E2881A2-5DFE-4839-9925-E659E6CF5150}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{89FFDF70-5A40-4AB0-AA77-619E655063B6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D9A31709-98AC-4E34-A350-F45CF48678FA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7E45251D-FA4A-42C0-BF64-0EE28E821BFD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2CA22092-2477-4326-B6A3-19B3C5DE435D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{210DA331-115C-4031-B06B-B99C92FF7349}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C5516EAA-03BF-44A0-BBE4-84CACD34F346}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{400DE2D6-9287-47E4-BC14-6FA4FBC3C621}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{989E94F8-21AF-450C-B266-3ADA15496427}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FF95E671-2F2D-4B4A-BF29-4A836D9783FD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1AA7370A-491F-467A-9129-6F3CA64BB73B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F4388D76-49F9-4544-A18F-A9AD84CD714A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{846974B8-5DCC-47AC-A4FE-A273A06D7328}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{57E92F4E-44C8-4634-A5F8-4A7B12F2DD24}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7636E62C-61C4-403D-8665-BD88F5547AB8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4AD5EA02-2CB3-46BD-A782-8A92E56D95B8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E39DAA3C-8F12-44AA-BE98-CCF6EAA781FE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D954DED8-BFAA-404B-8C5E-310C9D0F473C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{79D81BA2-74C4-4AFA-940E-382DE16276C1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE674BC0-7832-403A-903D-CE3BD74BC2F4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15139,7 +15139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3EC76C-38FB-4D3A-AE0F-8046B20509EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE1EDBC-5908-4D5E-9B4F-DC3D3A0AD7CF}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16370,18 +16370,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AE8DD6B7-BD67-4F40-B803-873265D08327}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D75216DD-14CD-410C-979E-1F10B818EE29}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D27C5D63-67B1-4120-9957-20ECB734C696}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3D9A0323-2526-4DEF-BE55-8AB14C839F0C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4BA4B3C3-5D1D-4D02-AF01-FCFA33E1E7FE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4A40AD6E-39A8-42EB-9EB4-FB95DA2DBBA6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3BD0F3D0-5E10-4F49-84D0-DD4E0462FD70}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3AF0A9D8-43D1-4331-BA18-4E2230C963DD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FDA111DB-BB20-4895-A4C1-4DFAEFE35377}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{25EFF74B-9DAA-473A-B434-75544352F693}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B647EFA-8F3A-4C88-96F6-3C12FFB14EDE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0D6F50D4-CBCB-4863-82CC-753BAF8954C6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3CB40366-40F5-43F9-BBE9-248D0AEB9AB5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C999D11D-2599-4422-AC75-13DEC771BEA2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{17D415C9-C11A-41BC-ABFB-2E5E72442F01}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C42C1EAE-C9D1-4939-B938-ABB934A35E6A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{86DB6469-D3DA-4968-82C9-799EE82EAD5E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{817EF8D1-EE14-4CEF-BD3A-8E99655AB224}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{735A7265-6C5D-4A83-B695-EB4F4F81D4C5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CD0B2F11-F649-4FE2-BB57-A290B5D20308}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{231A95E7-504B-41D6-9365-6F94B0E68883}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1D1A73AA-48F5-4CB2-8A1B-C7CF3D3AB9F0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C8C12C67-AFB1-4DD3-A339-81B3354DF04A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C42386BF-B1F3-49EF-9EE3-D9DA0DE4FA15}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
